--- a/medicine/Enfance/Prix_ado-lisant/Prix_ado-lisant.xlsx
+++ b/medicine/Enfance/Prix_ado-lisant/Prix_ado-lisant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix Ado-Lisant est un prix littéraire belge destiné aux adolescents de 13 à 16 ans (avec une ouverture aux jeunes de 12 et 17 ans).
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix Ado-Lisant a été créé en 1997 par le Réseau des Bibliothèques publiques francophones de Woluwe-Saint-Pierre, commune bruxelloise de Belgique. 
 Dès 1999, le Prix Ado-Lisant sort du cadre de la commune de Woluwe-Saint-Pierre en s’ouvrant aux adolescents du milieu hospitalier de l’UCL (Université Catholique de Louvain). 
@@ -549,7 +563,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Prix Ado-Lisant poursuit plusieurs objectifs : 
 Ouvrir à la lecture par la lecture-plaisir
@@ -586,7 +602,9 @@
           <t>Fonctionnement du Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un comité de sélection constitué de bibliothécaires, documentalistes, libraires, formateurs en littérature jeunesse et bénévoles sélectionnent six livres à lire. Cette sélection est dévoilée lors de la fête qui clôture l’année « adolisante ». 
 Les partenaires et relais du Prix Ado-Lisant apposent les affiches, distribuent des bulletins de vote (téléchargeables également sur le site du Prix) et proposent les six livres de la sélection. 
@@ -620,7 +638,9 @@
           <t>Partenaires et relais</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les partenaires et relais sont des bibliothèques/médiathèques, scolaires, communales ou autres, des librairies ou autres organismes impliqués à différents niveaux dans le Prix Ado-Lisant. Ils sont répartis sur la Belgique et la France. 
 Les partenaires participent à la sélection des romans et/ou se chargent d’une partie de l’organisation du Prix, tandis que les relais font la promotion du Prix au sein de leur établissement en accrochant l’affiche, distribuant des bulletins de vote et proposant les livres de la sélection.
@@ -652,7 +672,9 @@
           <t>Dates-clés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Février-mars : lancement du Prix : les six titres sélectionnés par le comité de sélection sont dévoilés au public. Les lecteurs ont 10 mois pour lire la sélection et voter pour leur livre préféré. 
 Novembre : aide au Prix à l’Expression : un atelier artistique pour les adolescents est organisé afin de les aider à s’exprimer de façon originale sur leur livre préféré. 
@@ -686,7 +708,9 @@
           <t>Le vote et le Prix à l’Expression</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux conditions sont requises pour participer au Prix Ado-Lisant : 
 avoir au minimum 12 ans et au maximum 17 ans
@@ -722,7 +746,9 @@
           <t>La fête de clôture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les mois de février-mars signent la fin d’une année « adolisante ». C’est l’un des jours du mois de février ou de mars qu’est organisée la fête de clôture du Prix Ado-Lisant. 
 La fête de clôture se déroule en quatre temps : 
@@ -757,7 +783,9 @@
           <t>Le site internet</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix Ado-Lisant dispose de son propre site internet : www.adolisant.be. S’y retrouvent la liste des livres de la sélection en cours (onglet « Sélection en cours ») et des sélections précédentes (onglet « et avant ? ») depuis le début du Prix en 1998. Tous les livres sont accompagnés d’un résumé ainsi que des expressions artistiques qui y sont liées et qui ont gagné un Prix à l’Expression. 
 Sous l’onglet « Je vote », les adolescents peuvent voter pour le roman qui les a le plus touchés. 
@@ -791,7 +819,9 @@
           <t>Lauréats du prix ado-lisant</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1998 : Séléné de Barbara Wood – Presses de la Cité
 1999 : La Route de Chlifa de Michèle Marineau – Québec Amérique
